--- a/biology/Microbiologie/Bouillon_cœur-cervelle/Bouillon_cœur-cervelle.xlsx
+++ b/biology/Microbiologie/Bouillon_cœur-cervelle/Bouillon_cœur-cervelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouillon_c%C5%93ur-cervelle</t>
+          <t>Bouillon_cœur-cervelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouillon_c%C5%93ur-cervelle</t>
+          <t>Bouillon_cœur-cervelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Milieu polyvalent riche utilisé pour la recherche de la coagulase libre (enzyme thermostable des Staphylococcus permettant la formation de caillots de fibrine, coagulation) et la DNAse thermostable des Staphylococcus. Il peut aussi servir dans la recherche de streptoccocus résistant enteroccocus dans la galerie de sherman.
 </t>
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bouillon_c%C5%93ur-cervelle</t>
+          <t>Bouillon_cœur-cervelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>protéose-peptone	10,0 g
 infusion de cervelle de veau	12,5 g
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bouillon_c%C5%93ur-cervelle</t>
+          <t>Bouillon_cœur-cervelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">37 g par litre. Stérilisation classique.
 </t>
